--- a/Yellow.xlsx
+++ b/Yellow.xlsx
@@ -13,6 +13,23 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Wavey</t>
+  </si>
+  <si>
+    <t>Drizz</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>1= failed to wear</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46,8 +63,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -55,6 +73,172 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wavey</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>41158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Drizz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>41158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="51655808"/>
+        <c:axId val="51657344"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="51655808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51657344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="51657344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51655808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,13 +526,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>41158</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Yellow.xlsx
+++ b/Yellow.xlsx
@@ -85,7 +85,7 @@
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -98,33 +98,24 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>dd/mm/yyyy</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>41158</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3</c:f>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -137,59 +128,53 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>dd/mm/yyyy</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>41158</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3</c:f>
+              <c:f>Sheet1!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="51655808"/>
-        <c:axId val="51657344"/>
+        <c:axId val="88192896"/>
+        <c:axId val="88194432"/>
       </c:barChart>
-      <c:dateAx>
-        <c:axId val="51655808"/>
+      <c:catAx>
+        <c:axId val="88192896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51657344"/>
+        <c:crossAx val="88194432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:dateAx>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="51657344"/>
+        <c:axId val="88194432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51655808"/>
+        <c:crossAx val="88192896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -200,7 +185,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -526,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -562,6 +547,17 @@
       </c>
       <c r="C3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>41172</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
